--- a/pred_ohlcv/54_21/2019-10-27 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>143332.5063026101</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>143332.5063026101</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>236979.8119026101</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>236979.8119026101</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>63882.96141857011</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>76181.92541857011</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>89479.25621857011</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-64418.48569089988</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-61800.50449089988</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>110323.3195877401</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>408773.9605165601</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>397325.6321165601</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>399097.8213165601</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>383551.0540165601</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>377466.6986165601</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>377523.0829165601</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>377444.6856165601</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>460083.44243084</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>460083.44243084</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>493770.4453308401</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>492599.5506308401</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>489637.3989308401</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>489637.3989308401</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>494066.3322308401</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>493544.0699308401</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>493544.0699308401</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>506697.6354308401</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>500862.7613308401</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>503862.7613308401</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>504288.9283308401</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>504288.9283308401</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>504288.9283308401</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-180716.01049765</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>425500.53530235</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>381611.72120235</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>381611.72120235</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>380516.66100235</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>380516.66100235</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>436787.86810235</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>436787.86810235</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>862393.9747586601</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1269412.64845807</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1269412.64845807</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2040579.64698264</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2040579.64698264</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2022166.8923185</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2004835.4065185</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1206574.7054446</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1206574.7054446</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1206574.7054446</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1212657.54852448</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1212201.62292448</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1385749.9085653</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1384765.04378542</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1384765.04378542</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1384949.48158542</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1379271.90068542</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1487239.68138542</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1487239.68138542</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3182488.66652981</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3182488.66652981</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3070477.46932981</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3741886.03222981</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4651162.12572981</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>5329794.214329811</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4796646.148929811</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>5095936.016429811</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>5380044.513629811</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>5068405.59450453</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>4685005.63330453</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>4661250.76850453</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>4661250.76850453</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>4878079.85920453</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>5358875.07370453</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>5872179.15137924</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>5872179.15137924</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>5872179.15137924</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>5872179.15137924</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5872179.15137924</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>6679362.02268181</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>6679362.02268181</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>6679362.02268181</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>6750742.99919609</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>6448960.589396089</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>6661439.214396089</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>6661439.214396089</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>6661439.214396089</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>6461008.992896089</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>6305557.26519609</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5846765.747796089</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>149145.4172026101</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>143332.5063026101</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>143332.5063026101</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>236979.8119026101</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>236979.8119026101</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>63882.96141857011</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>76181.92541857011</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>89479.25621857011</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-64418.48569089988</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-61800.50449089988</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>110323.3195877401</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>408773.9605165601</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>397325.6321165601</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>399097.8213165601</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>383551.0540165601</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>387741.2539165601</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>377466.6986165601</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>377523.0829165601</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>376593.4530165601</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>377444.6856165601</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>374798.7930165601</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>362981.3433165601</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>597772.95741656</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>460083.44243084</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>460083.44243084</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>493770.4453308401</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>492598.5506308401</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>492599.5506308401</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>489637.3989308401</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>489637.3989308401</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>494066.3322308401</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>493544.0699308401</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>493544.0699308401</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>506697.6354308401</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>500862.7613308401</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>503860.7613308401</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>504288.9283308401</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>504288.9283308401</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>543503.4298308401</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>512099.5318308401</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>512485.2884308401</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>504654.3889023502</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>467704.1695023501</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>467646.2967023501</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-180716.01049765</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>425500.53530235</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>381611.72120235</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>381611.72120235</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>380516.66100235</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>380516.66100235</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>436787.86810235</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>436787.86810235</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>862393.9747586601</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>950313.1626580702</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1269412.64845807</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1269412.64845807</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>2040579.64698264</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2040579.64698264</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1948749.12928264</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2022166.8923185</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2014588.2045185</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>2013820.4405185</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2004835.4065185</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1206574.7054446</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1206574.7054446</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1206574.7054446</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1212657.54852448</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1212201.62292448</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1385749.9085653</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1384765.04378542</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1384765.04378542</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1384949.48158542</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1379271.90068542</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1487239.68138542</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1487239.68138542</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>3182488.66652981</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>3182488.66652981</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>3070477.46932981</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>3741886.03222981</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>4651162.12572981</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>5329794.214329811</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>4796646.148929811</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>5095936.016429811</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>5380044.513629811</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>7272099.991584571</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>6997115.830639331</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>6997115.830639331</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>7397708.10613933</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>6292406.08816233</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>6292406.08816233</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>6209254.89676233</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>6297382.61676233</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>6297382.61676233</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>6297382.61676233</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>6207722.45946233</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>5072022.13326233</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>5072022.13326233</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>5355735.35926233</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>5355735.35926233</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>5332682.22920453</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>5068405.59450453</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>4878079.85920453</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>5872179.15137924</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>5872179.15137924</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>6679362.02268181</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>6679362.02268181</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>6679362.02268181</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>6750742.99919609</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>6448960.589396089</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>6661439.214396089</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>6661439.214396089</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>6661439.214396089</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>6461008.992896089</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>6305557.26519609</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>5846765.747796089</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>6049678.081096089</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>6083584.156196089</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>6137681.211926159</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>6137681.211926159</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>6058433.33292616</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>5813040.5488549</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>5813040.5488549</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>6103774.5540549</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>6103774.5540549</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>6103774.5540549</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>6103452.5540549</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>6103452.5540549</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>6357199.9230549</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>6357199.9230549</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>6279387.8164549</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>6280828.738554901</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>6280828.738554901</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>6280828.738554901</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>6280828.738554901</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>6280828.738554901</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>6253511.510254901</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>6253511.510254901</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>6253511.510254901</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>6224088.042954901</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
